--- a/5_results/5_3_mix/feature_importance_set_6.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_6.xlsx
@@ -472,122 +472,122 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.07634767301966798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.00872168173745114</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>2.008536908634716e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.09430573626353207</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.05838960977580389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.006748230874651396</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.0008406172634056263</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>2.830624776152235e-05</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.008479073438568876</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>0.005017388310733915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.001655784480922295</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>0.000391951172725557</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>0.0003502061065396582</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.00246281736290513</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>0.0008487515989394609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.001259176343881552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>0.0004033110307866169</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>0.001107152439562009</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.002089599330622032</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>0.000428753357141071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>0.001184143776790525</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>0.0002884359419062533</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>0.000390986859002658</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.001778037367783878</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>0.000590250185797172</v>
       </c>
     </row>
     <row r="7">
@@ -597,147 +597,147 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>0.0003795222140854593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>0.0001089292766774587</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>0.000732071033152979</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>0.0006038091003269479</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>0.0001552353278439707</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>6.417392597173333e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>4.755601406876609e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>0.01963102373081334</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>0.0001620924162332883</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>-3.374456428982168e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>7.850462293418876e-17</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>0.01705471158370482</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>2.726644061332084e-16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>-5.061980120817709e-17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>8.881784197001253e-17</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>4.965068306494547e-17</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>0.008065044950046269</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>1.910492846461031e-16</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>-1.341360070607806e-17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>8.881784197001253e-17</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>4.965068306494546e-17</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.008065044950046259</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>1.910492846461031e-16</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>-1.341360070607804e-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>8.881784197001253e-17</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>4.965068306494546e-17</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.008065044950046259</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>1.910492846461031e-16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>-1.341360070607804e-17</v>
       </c>
     </row>
     <row r="13">
@@ -747,197 +747,197 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>8.881784197001253e-17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>4.965068306494546e-17</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.008065044950046259</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>1.910492846461031e-16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>-1.341360070607804e-17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>2.220446049250313e-17</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>4.965068306494547e-17</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.1869504831500295</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>1.244359031685937e-16</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>-8.002698218358746e-17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_6.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_6.xlsx
@@ -468,476 +468,476 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-color-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07634767301966798</v>
+        <v>0.0887375536453517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00872168173745114</v>
+        <v>0.01162360655609228</v>
       </c>
       <c r="D2" t="n">
-        <v>2.008536908634716e-05</v>
+        <v>3.453379498385808e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09430573626353207</v>
+        <v>0.1126707201996613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05838960977580389</v>
+        <v>0.06480438709104211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006748230874651396</v>
+        <v>0.08725678072522922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008406172634056263</v>
+        <v>0.01066128374939179</v>
       </c>
       <c r="D3" t="n">
-        <v>2.830624776152235e-05</v>
+        <v>2.621965797602811e-05</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008479073438568876</v>
+        <v>0.1092085113198278</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005017388310733915</v>
+        <v>0.06530505013063059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001655784480922295</v>
+        <v>0.08421642792906636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000391951172725557</v>
+        <v>0.01061262139568422</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003502061065396582</v>
+        <v>2.963088967173345e-05</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00246281736290513</v>
+        <v>0.1060679620647959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0008487515989394609</v>
+        <v>0.06236489379333685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001259176343881552</v>
+        <v>0.06917906229192798</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004033110307866169</v>
+        <v>0.002869951903610386</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001107152439562009</v>
+        <v>3.546378529195116e-07</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002089599330622032</v>
+        <v>0.07508833292841252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000428753357141071</v>
+        <v>0.06326979165544344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Stroop-color-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001184143776790525</v>
+        <v>0.03608387934109134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002884359419062533</v>
+        <v>0.002875738750632683</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000390986859002658</v>
+        <v>4.800175757481665e-06</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001778037367783878</v>
+        <v>0.04200506517557751</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000590250185797172</v>
+        <v>0.03016269350660517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003795222140854593</v>
+        <v>0.02691527293735842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001089292766774587</v>
+        <v>0.004825614321920146</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000732071033152979</v>
+        <v>0.000118852545560772</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006038091003269479</v>
+        <v>0.03685127952326989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001552353278439707</v>
+        <v>0.01697926635144696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.417392597173333e-05</v>
+        <v>0.02585356771991474</v>
       </c>
       <c r="C8" t="n">
-        <v>4.755601406876609e-05</v>
+        <v>0.003302085828182981</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01963102373081334</v>
+        <v>3.125108343370286e-05</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001620924162332883</v>
+        <v>0.03265260807981981</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.374456428982168e-05</v>
+        <v>0.01905452736000967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.02285092894243925</v>
       </c>
       <c r="C9" t="n">
-        <v>7.850462293418876e-17</v>
+        <v>0.007956890380169515</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01705471158370482</v>
+        <v>0.001511467798434799</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>2.726644061332084e-16</v>
+        <v>0.03923427621112058</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.061980120817709e-17</v>
+        <v>0.006467581673757928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.881784197001253e-17</v>
+        <v>0.02097342400351792</v>
       </c>
       <c r="C10" t="n">
-        <v>4.965068306494547e-17</v>
+        <v>0.004764531405172185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008065044950046269</v>
+        <v>0.0002987289432390855</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>1.910492846461031e-16</v>
+        <v>0.0307836600195897</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.341360070607806e-17</v>
+        <v>0.01116318798744613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.881784197001253e-17</v>
+        <v>0.02018440138628461</v>
       </c>
       <c r="C11" t="n">
-        <v>4.965068306494546e-17</v>
+        <v>0.003972612726422667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008065044950046259</v>
+        <v>0.0001711269439098504</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>1.910492846461031e-16</v>
+        <v>0.02836406589733181</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.341360070607804e-17</v>
+        <v>0.01200473687523741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.881784197001253e-17</v>
+        <v>0.01973744433210323</v>
       </c>
       <c r="C12" t="n">
-        <v>4.965068306494546e-17</v>
+        <v>0.006545998056532978</v>
       </c>
       <c r="D12" t="n">
-        <v>0.008065044950046259</v>
+        <v>0.001261154587119712</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>1.910492846461031e-16</v>
+        <v>0.03321574480581266</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.341360070607804e-17</v>
+        <v>0.006259143858393794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.881784197001253e-17</v>
+        <v>0.01814501839274367</v>
       </c>
       <c r="C13" t="n">
-        <v>4.965068306494546e-17</v>
+        <v>0.005069045509549835</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008065044950046259</v>
+        <v>0.0006606381860124511</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>1.910492846461031e-16</v>
+        <v>0.02858225315856124</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.341360070607804e-17</v>
+        <v>0.007707783626926108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.01652113331894365</v>
       </c>
       <c r="C14" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.004352191807875048</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.0005280817161458201</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.02548235640504174</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.007559910232845555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.009387825657438143</v>
       </c>
       <c r="C15" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.002928554283695691</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.001002730995580595</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.01541775940448929</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.003357891910386997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.007864249446795424</v>
       </c>
       <c r="C16" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.001051404077739769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03524199845510997</v>
+        <v>3.74412927374416e-05</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.01002910497481029</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.005699393918780563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.006978229001946756</v>
       </c>
       <c r="C17" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.001307996746415738</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.0001414332899638174</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.009671412381253009</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.004285045622640504</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.00686934663333294</v>
       </c>
       <c r="C18" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.001547627880798053</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03524199845510997</v>
+        <v>0.0002893017716017005</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.01005593383038663</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.003682759436279249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.220446049250313e-17</v>
+        <v>0.005112334716059874</v>
       </c>
       <c r="C19" t="n">
-        <v>4.965068306494547e-17</v>
+        <v>0.0008905494030882459</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1869504831500295</v>
+        <v>0.00010616130006725</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>1.244359031685937e-16</v>
+        <v>0.006945988245719379</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.002698218358746e-17</v>
+        <v>0.003278681186400369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.002219558418394341</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.0005005692554753792</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0.000290454948408062</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.003250237434020503</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.001188879402768179</v>
       </c>
     </row>
   </sheetData>
